--- a/metadata/dataset_sum.xlsx
+++ b/metadata/dataset_sum.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenjingxuan/Github/canine_tumor_wes/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA266562-E144-C44D-845B-596261FE7D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EAFD20-7EEA-CE43-9FDE-87118C1B7415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{8C911715-1879-214C-93AA-41359558607D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{8C911715-1879-214C-93AA-41359558607D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="old_datasets" sheetId="1" r:id="rId1"/>
+    <sheet name="new_datasets" sheetId="3" r:id="rId2"/>
+    <sheet name="new_dataset_exclude" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="179">
   <si>
     <t>Bioproject ID</t>
   </si>
@@ -147,15 +148,9 @@
     <t>47 (94)</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>PRJDB16014</t>
   </si>
   <si>
-    <t>non-tumor</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/Traces/study/?query_key=9&amp;WebEnv=MCID_64e6147988017d03fd1995e9&amp;o=acc_s%3Aa</t>
   </si>
   <si>
@@ -249,9 +244,6 @@
     <t>https://www.ncbi.nlm.nih.gov/bioproject/821094</t>
   </si>
   <si>
-    <t>histiocytic sarcoma</t>
-  </si>
-  <si>
     <t>PRJNA786469</t>
   </si>
   <si>
@@ -264,12 +256,6 @@
     <t>https://igdr.univ-rennes.fr/en/canine-genetics-project</t>
   </si>
   <si>
-    <t>oral melanoma</t>
-  </si>
-  <si>
-    <t>diffuse large B-cell lymphoma (cDLBCL)</t>
-  </si>
-  <si>
     <t>PRJNA752630</t>
   </si>
   <si>
@@ -327,9 +313,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>not WES</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/bioproject/701141</t>
   </si>
   <si>
@@ -339,12 +322,6 @@
     <t>https://www.ncbi.nlm.nih.gov/Traces/study/?acc=PRJNA701141&amp;o=acc_s%3Aa</t>
   </si>
   <si>
-    <t>some are RNA-seq</t>
-  </si>
-  <si>
-    <t>ostosarcoma (cOSA)</t>
-  </si>
-  <si>
     <t>PRJNA700983</t>
   </si>
   <si>
@@ -375,9 +352,6 @@
     <t>175x175bp</t>
   </si>
   <si>
-    <t>B-Cell Lymphoma (cBCL)</t>
-  </si>
-  <si>
     <t>PRJNA680382</t>
   </si>
   <si>
@@ -387,9 +361,6 @@
     <t>University of Missouri</t>
   </si>
   <si>
-    <t>Osteosarcoma</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/bioproject/680382</t>
   </si>
   <si>
@@ -402,9 +373,6 @@
     <t>https://www.ncbi.nlm.nih.gov/bioproject/677995</t>
   </si>
   <si>
-    <t>splenic angiosarcoma (hemangiosarcoma)</t>
-  </si>
-  <si>
     <t>125x125bp</t>
   </si>
   <si>
@@ -438,9 +406,6 @@
     <t>fearfulness?</t>
   </si>
   <si>
-    <t>partial WGS</t>
-  </si>
-  <si>
     <t>PRJNA616374</t>
   </si>
   <si>
@@ -465,9 +430,6 @@
     <t>https://www.ncbi.nlm.nih.gov/bioproject/613479</t>
   </si>
   <si>
-    <t>26 canine primary and one metastatic osteosarcoma</t>
-  </si>
-  <si>
     <t>PRJNA597042</t>
   </si>
   <si>
@@ -493,13 +455,133 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/bioproject/556384</t>
+  </si>
+  <si>
+    <t>no data</t>
+  </si>
+  <si>
+    <t>targeted exome sequencing</t>
+  </si>
+  <si>
+    <t>Target sequencing; only tumor samples</t>
+  </si>
+  <si>
+    <t>reason to exclude</t>
+  </si>
+  <si>
+    <t>WCS/WGS</t>
+  </si>
+  <si>
+    <t>All tumor samples</t>
+  </si>
+  <si>
+    <t>WES/WGS; Not tumor study</t>
+  </si>
+  <si>
+    <t>only 1 case?</t>
+  </si>
+  <si>
+    <t>inflammatory colorectal polyp</t>
+  </si>
+  <si>
+    <t>Not tumor study</t>
+  </si>
+  <si>
+    <t>Urothelial carcinoma (UC)</t>
+  </si>
+  <si>
+    <t>4(8)</t>
+  </si>
+  <si>
+    <t>87(174)</t>
+  </si>
+  <si>
+    <t>No breed info; No T-N pair info</t>
+  </si>
+  <si>
+    <t>Multiple non-tumor diseases</t>
+  </si>
+  <si>
+    <t>49 dogs; unpaired</t>
+  </si>
+  <si>
+    <t>Not tumor study; Not paired</t>
+  </si>
+  <si>
+    <t>Mammary neoplasia (MT)</t>
+  </si>
+  <si>
+    <t>53(106); 5 unpaired</t>
+  </si>
+  <si>
+    <t>total runs under Bioproject</t>
+  </si>
+  <si>
+    <t>No breed info;</t>
+  </si>
+  <si>
+    <t>Histiocytic sarcoma (HS)</t>
+  </si>
+  <si>
+    <t>5(10)</t>
+  </si>
+  <si>
+    <t>paired cases (matched normal &amp; tumor samples)</t>
+  </si>
+  <si>
+    <t>72(144); 1 unpaired</t>
+  </si>
+  <si>
+    <t>77(154)</t>
+  </si>
+  <si>
+    <t>"Guess" on Tumor/Normal based on "Library Name" column</t>
+  </si>
+  <si>
+    <t>1(2)</t>
+  </si>
+  <si>
+    <t>71(142)</t>
+  </si>
+  <si>
+    <t>Reformat from 2 dogs of normal-primary-metastatic; Some WGS/RNA-seq</t>
+  </si>
+  <si>
+    <t>11 unpaired</t>
+  </si>
+  <si>
+    <t>27 unpaired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only 1 T-N pair; some RNA-seq; 9 cell-line; </t>
+  </si>
+  <si>
+    <t>No breed info; No T-N pair info; Messy pairing</t>
+  </si>
+  <si>
+    <t>Total: 374 paired cases; 52 unpaired cases</t>
+  </si>
+  <si>
+    <t>oral melanoma (OM)</t>
+  </si>
+  <si>
+    <t>Osteosarcoma (OSA)</t>
+  </si>
+  <si>
+    <t>diffuse large B-cell lymphoma (DLBCL)</t>
+  </si>
+  <si>
+    <t>splenic angiosarcoma (hemangiosarcoma) (HSA)</t>
+  </si>
+  <si>
+    <t>B-Cell Lymphoma (BCL)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -508,44 +590,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14.75"/>
-      <color rgb="FF985735"/>
-      <name val="Arial"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -565,35 +633,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -906,24 +1002,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BABD659-D637-ED4D-9BD0-56540BF677F1}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="3"/>
+    <col min="9" max="9" width="21.1640625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,11 +1039,11 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -955,11 +1053,9 @@
         <v>8</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -973,11 +1069,9 @@
         <v>8</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -991,11 +1085,9 @@
         <v>15</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1008,12 +1100,10 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1027,11 +1117,9 @@
         <v>22</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1045,11 +1133,9 @@
         <v>15</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1062,12 +1148,10 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1081,29 +1165,25 @@
         <v>30</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1117,718 +1197,869 @@
         <v>8</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13">
-        <v>2023</v>
-      </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14">
-        <v>829</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14">
-        <v>2022</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15">
-        <v>2022</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16">
-        <v>111</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16">
-        <v>2022</v>
-      </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17">
-        <v>2022</v>
-      </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18">
-        <v>145</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18">
-        <v>2021</v>
-      </c>
-      <c r="H18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19">
-        <v>154</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19">
-        <v>2021</v>
-      </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20">
-        <v>146</v>
-      </c>
-      <c r="D20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20">
-        <v>2021</v>
-      </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21">
-        <v>2021</v>
-      </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22">
-        <v>2021</v>
-      </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23">
-        <v>2021</v>
-      </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24">
-        <v>142</v>
-      </c>
-      <c r="D24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24">
-        <v>2021</v>
-      </c>
-      <c r="H24" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25">
-        <v>2020</v>
-      </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26">
-        <v>83</v>
-      </c>
-      <c r="D26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26">
-        <v>2020</v>
-      </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27">
-        <v>2020</v>
-      </c>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G28">
-        <v>2020</v>
-      </c>
-      <c r="H28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29">
-        <v>2020</v>
-      </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30">
-        <v>2019</v>
-      </c>
-      <c r="H30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" t="s">
-        <v>151</v>
-      </c>
-      <c r="G31">
-        <v>2019</v>
-      </c>
-      <c r="H31" t="s">
-        <v>48</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{51B0EF05-21DD-1140-93F3-22544F784F0B}"/>
-    <hyperlink ref="F22" r:id="rId2" xr:uid="{06A41FBB-9450-5F48-B3E2-62EAE0DEBAC9}"/>
-    <hyperlink ref="E26" r:id="rId3" xr:uid="{C674A06A-096B-8C4F-80DC-74303D99700A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF5FF9E-BB60-774C-891F-D2C85E568BFC}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3586624C-3A3C-3A4F-BE02-FCD2422E18D2}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="9">
+        <v>829</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2022</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="9">
+        <v>111</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2022</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K3" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2022</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="9">
+        <v>145</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="9">
+        <v>2021</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="9">
+        <v>154</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2021</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="9">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2021</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="9">
+        <v>142</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2021</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="9">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2020</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="9">
+        <v>83</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2020</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="9">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="9">
+        <v>2020</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="9">
+        <v>27</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2020</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="D13" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF5FF9E-BB60-774C-891F-D2C85E568BFC}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11" style="13" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="48" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="44" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="22" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="15">
+        <v>2023</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="15">
+        <v>2021</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="15">
+        <v>2020</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="15">
+        <v>146</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="15">
+        <v>2021</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="15">
+        <v>2021</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15">
+        <v>18</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="15">
+        <v>2021</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="15">
+        <v>22</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2020</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="15">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="15">
+        <v>2019</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="44" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="15">
+        <v>4</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G10" s="15">
+        <v>2023</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="I10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="15">
+        <v>2022</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2">
-        <v>2023</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3">
-        <v>2021</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4">
-        <v>2020</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" t="s">
-        <v>127</v>
+      <c r="J11" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="13">
+        <v>50</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2019</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{2663FF9C-E1CF-164E-B204-AF9748E7C220}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/metadata/dataset_sum.xlsx
+++ b/metadata/dataset_sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenjingxuan/Github/canine_tumor_wes/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EAFD20-7EEA-CE43-9FDE-87118C1B7415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E7B943-96B3-C24E-ACA0-74A70902A793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{8C911715-1879-214C-93AA-41359558607D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{8C911715-1879-214C-93AA-41359558607D}"/>
   </bookViews>
   <sheets>
     <sheet name="old_datasets" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="182">
   <si>
     <t>Bioproject ID</t>
   </si>
@@ -220,9 +220,6 @@
     <t>total runs</t>
   </si>
   <si>
-    <t>UPPSALA UNIVERISTY</t>
-  </si>
-  <si>
     <t>PRJEB53653</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>https://www.ncbi.nlm.nih.gov/bioproject/857258</t>
   </si>
   <si>
-    <t>The university of Tokyo</t>
-  </si>
-  <si>
     <t>PRJDB10211</t>
   </si>
   <si>
@@ -250,9 +244,6 @@
     <t>https://www.ncbi.nlm.nih.gov/bioproject/786469</t>
   </si>
   <si>
-    <t>CNRS - university Rennes1</t>
-  </si>
-  <si>
     <t>https://igdr.univ-rennes.fr/en/canine-genetics-project</t>
   </si>
   <si>
@@ -310,9 +301,6 @@
     <t>75/125bp</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/bioproject/701141</t>
   </si>
   <si>
@@ -415,9 +403,6 @@
     <t>https://www.ncbi.nlm.nih.gov/bioproject/616374</t>
   </si>
   <si>
-    <t>primary bladder tumor</t>
-  </si>
-  <si>
     <t>Colorado State University</t>
   </si>
   <si>
@@ -514,9 +499,6 @@
     <t>53(106); 5 unpaired</t>
   </si>
   <si>
-    <t>total runs under Bioproject</t>
-  </si>
-  <si>
     <t>No breed info;</t>
   </si>
   <si>
@@ -526,9 +508,6 @@
     <t>5(10)</t>
   </si>
   <si>
-    <t>paired cases (matched normal &amp; tumor samples)</t>
-  </si>
-  <si>
     <t>72(144); 1 unpaired</t>
   </si>
   <si>
@@ -575,6 +554,36 @@
   </si>
   <si>
     <t>B-Cell Lymphoma (BCL)</t>
+  </si>
+  <si>
+    <t>Total runs under Bioproject</t>
+  </si>
+  <si>
+    <t>Paired cases (matched normal &amp; tumor samples)</t>
+  </si>
+  <si>
+    <t>Primary bladder tumor</t>
+  </si>
+  <si>
+    <t>The University of Tokyo</t>
+  </si>
+  <si>
+    <t>Uppsala Uuniversity</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Submitter</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>CNRS - University Rennes1</t>
   </si>
 </sst>
 </file>
@@ -616,12 +625,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -636,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -658,36 +679,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,7 +1042,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,28 +1243,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3586624C-3A3C-3A4F-BE02-FCD2422E18D2}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="20" customWidth="1"/>
+    <col min="2" max="2" width="49" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17" style="20" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.6640625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="20" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="20" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="66" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1235,416 +1273,468 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>162</v>
+        <v>172</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="J1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="K1" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="22" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="19">
         <v>829</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="19">
+        <v>2022</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" ht="22" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="C3" s="19">
+        <v>111</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="19">
         <v>2022</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="G3" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="J3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" ht="22" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="19">
+        <v>10</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="19">
+        <v>2022</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" ht="22" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="19">
+        <v>145</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="9">
-        <v>111</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="E5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="19">
+        <v>2021</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:14" ht="44" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="19">
+        <v>154</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E6" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="9">
-        <v>2022</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="F6" s="19">
+        <v>2021</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:14" ht="44" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="19">
+        <v>16</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="E7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="19">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" ht="22" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="19">
+        <v>142</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="9">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="E8" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2021</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+    </row>
+    <row r="9" spans="1:14" ht="66" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="19">
+        <v>16</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="19">
+        <v>2020</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="I9" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" ht="44" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="19">
+        <v>83</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2020</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" spans="1:14" ht="22" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="19">
+        <v>11</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2020</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="1:14" ht="22" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="19">
+        <v>27</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="9">
-        <v>2022</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="9">
-        <v>145</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="9">
-        <v>2021</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="9">
-        <v>154</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2021</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="9">
-        <v>16</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="F12" s="19">
+        <v>2020</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:14" ht="66" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="9">
-        <v>2021</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="9">
-        <v>142</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="9">
-        <v>2021</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="9">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="9">
-        <v>2020</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="9">
-        <v>83</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="9">
-        <v>2020</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="9">
-        <v>11</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="9">
-        <v>2020</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="9">
-        <v>27</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H12" s="9">
-        <v>2020</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="D13" s="13" t="s">
-        <v>173</v>
-      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1653,410 +1743,399 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF5FF9E-BB60-774C-891F-D2C85E568BFC}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="11" style="13" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="48" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="16.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11" style="9" customWidth="1"/>
+    <col min="6" max="6" width="48" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="44" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" ht="44" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="I1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="J1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2023</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2021</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11">
+        <v>2020</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="11">
+        <v>146</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2021</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2021</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2021</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="11">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="11">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2019</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="44" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" ht="22" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="C10" s="11">
+        <v>4</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
         <v>2023</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="F10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2022</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="15">
-        <v>2021</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="15">
-        <v>2020</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="15">
-        <v>146</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="15">
-        <v>2021</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="17" t="s">
+      <c r="G11" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="17">
+        <v>50</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="17">
+        <v>2019</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15">
-        <v>2</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="15">
-        <v>2021</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15">
-        <v>18</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="15">
-        <v>2021</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="15">
-        <v>22</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="15">
-        <v>2020</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="15">
-        <v>12</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="G12" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="15">
-        <v>2019</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="17" t="s">
+      <c r="I12" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" ht="44" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="15">
-        <v>4</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="15">
-        <v>2023</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="15">
-        <v>2022</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="13">
-        <v>50</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="13">
-        <v>2019</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>172</v>
+      <c r="J12" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/dataset_sum.xlsx
+++ b/metadata/dataset_sum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenjingxuan/Github/canine_tumor_wes/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingxuan/GitHub/canine_tumor_wes/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E7B943-96B3-C24E-ACA0-74A70902A793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3101C8A-8693-3C42-9238-BA6F06A9EFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{8C911715-1879-214C-93AA-41359558607D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="184">
   <si>
     <t>Bioproject ID</t>
   </si>
@@ -538,9 +538,6 @@
     <t>No breed info; No T-N pair info; Messy pairing</t>
   </si>
   <si>
-    <t>Total: 374 paired cases; 52 unpaired cases</t>
-  </si>
-  <si>
     <t>oral melanoma (OM)</t>
   </si>
   <si>
@@ -584,6 +581,15 @@
   </si>
   <si>
     <t>CNRS - University Rennes1</t>
+  </si>
+  <si>
+    <t>4 unpaired</t>
+  </si>
+  <si>
+    <t>49 unpaired</t>
+  </si>
+  <si>
+    <t>16 unpaired</t>
   </si>
 </sst>
 </file>
@@ -625,18 +631,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -657,73 +657,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,15 +1026,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="3"/>
-    <col min="9" max="9" width="21.1640625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1074,13 +1051,12 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1090,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1106,7 +1082,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1122,7 +1098,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1137,8 +1113,8 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1154,7 +1130,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1170,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1185,8 +1161,8 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1202,23 +1178,23 @@
         <v>30</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1234,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1243,498 +1219,451 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3586624C-3A3C-3A4F-BE02-FCD2422E18D2}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" style="20" customWidth="1"/>
-    <col min="2" max="2" width="49" style="20" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17" style="20" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.6640625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="20" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="20" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="20"/>
+    <col min="1" max="1" width="22" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="66" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" ht="66" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="24" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="5">
+        <v>111</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="5">
+        <v>145</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="19">
-        <v>829</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="H4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="44" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="5">
+        <v>154</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="5">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="5">
+        <v>142</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="44" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="5">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="44" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="5">
+        <v>83</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="12" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="17">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17">
+        <v>2023</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2022</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="17">
+        <v>22</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="19">
-        <v>2022</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="19">
-        <v>111</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="19">
-        <v>2022</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="19">
-        <v>10</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="19">
-        <v>2022</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-    </row>
-    <row r="5" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="19">
-        <v>145</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="19">
-        <v>2021</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-    </row>
-    <row r="6" spans="1:14" ht="44" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="19">
-        <v>154</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="19">
-        <v>2021</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-    </row>
-    <row r="7" spans="1:14" ht="44" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="19">
-        <v>16</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="19">
-        <v>2021</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-    </row>
-    <row r="8" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="19">
-        <v>142</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="19">
-        <v>2021</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-    </row>
-    <row r="9" spans="1:14" ht="66" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="19">
-        <v>16</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="F12" s="17">
         <v>2020</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-    </row>
-    <row r="10" spans="1:14" ht="44" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="19">
-        <v>83</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="19">
-        <v>2020</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-    </row>
-    <row r="11" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="19">
-        <v>11</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="19">
-        <v>2020</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-    </row>
-    <row r="12" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="19">
-        <v>27</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="19">
-        <v>2020</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-    </row>
-    <row r="13" spans="1:14" ht="66" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="G12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1743,398 +1672,412 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF5FF9E-BB60-774C-891F-D2C85E568BFC}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11" style="9" customWidth="1"/>
-    <col min="6" max="6" width="48" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="27.83203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11" style="6" customWidth="1"/>
+    <col min="6" max="6" width="48" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="44" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" ht="110" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:11" ht="22" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="8">
         <v>2023</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="K2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="B3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="8">
         <v>2021</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="K3" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
         <v>2020</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="K4" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>146</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F5" s="8">
         <v>2021</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="K5" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
         <v>2</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="11">
+      <c r="F6" s="8">
         <v>2021</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="K6" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
         <v>18</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="11">
+      <c r="F7" s="8">
         <v>2021</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="11">
-        <v>22</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="K7" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="8">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2019</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="10">
+        <v>50</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2019</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="5">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="11">
+      <c r="F13" s="5">
         <v>2020</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="11">
-        <v>12</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="G13" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="5">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="11">
-        <v>2019</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="44" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="11">
-        <v>4</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11">
-        <v>2023</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="F14" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="5">
+        <v>829</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="5">
         <v>2022</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="17">
-        <v>50</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="17">
-        <v>2019</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="G15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" s="17" t="s">
+      <c r="H15" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>46</v>
       </c>
     </row>

--- a/metadata/dataset_sum.xlsx
+++ b/metadata/dataset_sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingxuan/GitHub/canine_tumor_wes/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3101C8A-8693-3C42-9238-BA6F06A9EFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F0FFF0-4F8C-7043-82CD-D83F47C0940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{8C911715-1879-214C-93AA-41359558607D}"/>
+    <workbookView xWindow="-25780" yWindow="1900" windowWidth="23960" windowHeight="14980" xr2:uid="{8C911715-1879-214C-93AA-41359558607D}"/>
   </bookViews>
   <sheets>
     <sheet name="old_datasets" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="196">
   <si>
     <t>Bioproject ID</t>
   </si>
@@ -590,6 +590,42 @@
   </si>
   <si>
     <t>16 unpaired</t>
+  </si>
+  <si>
+    <t>Germline results</t>
+  </si>
+  <si>
+    <t>/project/szlab/Kun_Lin/Pan_Cancer/Mammary_Cancer/Germline</t>
+  </si>
+  <si>
+    <t>DepthOfCoverage</t>
+  </si>
+  <si>
+    <t>/project/szlab/Kun_Lin/Pan_Cancer/Mammary_Cancer/DepthOfCoverage</t>
+  </si>
+  <si>
+    <t>/project/szlab/Kun_Lin/Pan_Cancer/Glioma/Germline</t>
+  </si>
+  <si>
+    <t>/project/szlab/Kun_Lin/Pan_Cancer/Glioma/DepthOfCoverage</t>
+  </si>
+  <si>
+    <t>/project/szlab/Kun_Lin/Pan_Cancer/HSA/DepthOfCoverage</t>
+  </si>
+  <si>
+    <t>/project/szlab/Kun_Lin/Pan_Cancer/Lymphoma/DepthOfCoverage</t>
+  </si>
+  <si>
+    <t>/project/szlab/Kun_Lin/Pan_Cancer/Melanoma/Germline</t>
+  </si>
+  <si>
+    <t>/project/szlab/Kun_Lin/Pan_Cancer/Melanoma/DepthOfCoverage</t>
+  </si>
+  <si>
+    <t>/project/szlab/Kun_Lin/Pan_Cancer/Osteosarcoma/DepthOfCoverage</t>
+  </si>
+  <si>
+    <t>/project/szlab/Kun_Lin/Pan_Cancer/Others/DepthOfCoverage</t>
   </si>
 </sst>
 </file>
@@ -1018,24 +1054,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BABD659-D637-ED4D-9BD0-56540BF677F1}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="21.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,8 +1090,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1065,10 +1110,14 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,10 +1130,8 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1097,10 +1144,14 @@
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1114,9 +1165,11 @@
         <v>15</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1129,10 +1182,8 @@
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1145,10 +1196,11 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1162,9 +1214,11 @@
         <v>15</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1177,26 +1231,28 @@
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="F9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1209,8 +1265,12 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1221,7 +1281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3586624C-3A3C-3A4F-BE02-FCD2422E18D2}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1976,7 +2036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>118</v>
       </c>
@@ -2011,7 +2071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>122</v>
       </c>
@@ -2046,7 +2106,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>47</v>
       </c>

--- a/metadata/dataset_sum.xlsx
+++ b/metadata/dataset_sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingxuan/GitHub/canine_tumor_wes/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F0FFF0-4F8C-7043-82CD-D83F47C0940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF390A4-9F4B-A946-B1FE-189B62330AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25780" yWindow="1900" windowWidth="23960" windowHeight="14980" xr2:uid="{8C911715-1879-214C-93AA-41359558607D}"/>
+    <workbookView xWindow="-29400" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{8C911715-1879-214C-93AA-41359558607D}"/>
   </bookViews>
   <sheets>
     <sheet name="old_datasets" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="200">
   <si>
     <t>Bioproject ID</t>
   </si>
@@ -610,22 +610,34 @@
     <t>/project/szlab/Kun_Lin/Pan_Cancer/Glioma/DepthOfCoverage</t>
   </si>
   <si>
-    <t>/project/szlab/Kun_Lin/Pan_Cancer/HSA/DepthOfCoverage</t>
-  </si>
-  <si>
-    <t>/project/szlab/Kun_Lin/Pan_Cancer/Lymphoma/DepthOfCoverage</t>
-  </si>
-  <si>
     <t>/project/szlab/Kun_Lin/Pan_Cancer/Melanoma/Germline</t>
   </si>
   <si>
     <t>/project/szlab/Kun_Lin/Pan_Cancer/Melanoma/DepthOfCoverage</t>
   </si>
   <si>
-    <t>/project/szlab/Kun_Lin/Pan_Cancer/Osteosarcoma/DepthOfCoverage</t>
-  </si>
-  <si>
-    <t>/project/szlab/Kun_Lin/Pan_Cancer/Others/DepthOfCoverage</t>
+    <t>/project/szlab/Burair/pancancer/scratch_backup/pancancer/WES/germline/lymphoma/results</t>
+  </si>
+  <si>
+    <t>/project/szlab/tw71066/8-25-20-scratch-backup/All_NEW_WES/PRJNA552034-HSA/Mutation/new_mutect_results</t>
+  </si>
+  <si>
+    <t>/project/szlab/Burair/pancancer/scratch_backup/pancancer/WES/germline/osteosarcoma/results</t>
+  </si>
+  <si>
+    <t>/project/szlab/Burair/pancancer/scratch_backup/pancancer/WES/germline/other/results</t>
+  </si>
+  <si>
+    <t>/project/szlab/Kun_Lin/Pan_Cancer/ValidationData/MC/store/Germline</t>
+  </si>
+  <si>
+    <t>/project/szlab/Kun_Lin/Pan_Cancer/ValidationData/MC/store/DepthOfCoverage</t>
+  </si>
+  <si>
+    <t>/project/szlab/Kun_Lin/Pan_Cancer/ValidationData/HSA/Germline</t>
+  </si>
+  <si>
+    <t>/project/szlab/Kun_Lin/Pan_Cancer/ValidationData/HSA/DepthOfCoverage</t>
   </si>
 </sst>
 </file>
@@ -667,7 +679,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +689,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -739,6 +757,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,7 +1081,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1068,7 +1092,7 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="21.1640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="1"/>
@@ -1118,20 +1142,27 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1145,13 +1176,13 @@
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1165,25 +1196,31 @@
         <v>15</v>
       </c>
       <c r="E5" s="3"/>
+      <c r="F5" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1196,11 +1233,14 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1214,11 +1254,14 @@
         <v>15</v>
       </c>
       <c r="E8" s="3"/>
+      <c r="F8" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1239,20 +1282,27 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1266,14 +1316,15 @@
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1282,7 +1333,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/metadata/dataset_sum.xlsx
+++ b/metadata/dataset_sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingxuan/GitHub/canine_tumor_wes/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF390A4-9F4B-A946-B1FE-189B62330AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAA30B5-B0FC-984C-8126-D481D87CD2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29400" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{8C911715-1879-214C-93AA-41359558607D}"/>
   </bookViews>
@@ -711,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -759,9 +759,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1080,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BABD659-D637-ED4D-9BD0-56540BF677F1}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,23 +1139,22 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1282,23 +1278,22 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="1" t="s">
         <v>199</v>
       </c>
     </row>

--- a/metadata/dataset_sum.xlsx
+++ b/metadata/dataset_sum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingxuan/GitHub/canine_tumor_wes/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAA30B5-B0FC-984C-8126-D481D87CD2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8565BB-D4D4-984B-B2F1-08F4896A0E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29400" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{8C911715-1879-214C-93AA-41359558607D}"/>
+    <workbookView xWindow="-29400" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{8C911715-1879-214C-93AA-41359558607D}"/>
   </bookViews>
   <sheets>
     <sheet name="old_datasets" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="201">
   <si>
     <t>Bioproject ID</t>
   </si>
@@ -337,9 +337,6 @@
     <t>https://www.biorxiv.org/content/10.1101/2020.08.16.250100v2</t>
   </si>
   <si>
-    <t>175x175bp</t>
-  </si>
-  <si>
     <t>PRJNA680382</t>
   </si>
   <si>
@@ -361,9 +358,6 @@
     <t>https://www.ncbi.nlm.nih.gov/bioproject/677995</t>
   </si>
   <si>
-    <t>125x125bp</t>
-  </si>
-  <si>
     <t>Translational Genomics Research Institute</t>
   </si>
   <si>
@@ -638,6 +632,15 @@
   </si>
   <si>
     <t>/project/szlab/Kun_Lin/Pan_Cancer/ValidationData/HSA/DepthOfCoverage</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>106</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BABD659-D637-ED4D-9BD0-56540BF677F1}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1112,10 +1115,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -1132,10 +1135,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -1152,10 +1155,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -1172,10 +1175,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1193,10 +1196,10 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -1230,10 +1233,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -1251,10 +1254,10 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -1271,10 +1274,10 @@
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -1291,10 +1294,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1311,10 +1314,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1327,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3586624C-3A3C-3A4F-BE02-FCD2422E18D2}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1355,22 +1358,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>39</v>
@@ -1379,7 +1382,7 @@
         <v>38</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="22" x14ac:dyDescent="0.2">
@@ -1387,25 +1390,25 @@
         <v>60</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="5">
         <v>111</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="E2" s="5">
+        <v>151</v>
       </c>
       <c r="F2" s="5">
         <v>2022</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>61</v>
@@ -1422,25 +1425,25 @@
         <v>63</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="5">
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>57</v>
+        <v>153</v>
+      </c>
+      <c r="E3" s="5">
+        <v>150</v>
       </c>
       <c r="F3" s="5">
         <v>2022</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>64</v>
@@ -1457,22 +1460,22 @@
         <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="5">
         <v>145</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>154</v>
+      </c>
+      <c r="E4" s="5">
+        <v>76</v>
       </c>
       <c r="F4" s="5">
         <v>2021</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>46</v>
@@ -1492,16 +1495,16 @@
         <v>69</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="5">
         <v>154</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>155</v>
+      </c>
+      <c r="E5" s="5">
+        <v>151</v>
       </c>
       <c r="F5" s="5">
         <v>2021</v>
@@ -1510,7 +1513,7 @@
         <v>73</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>70</v>
@@ -1527,16 +1530,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C6" s="5">
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>57</v>
+        <v>157</v>
+      </c>
+      <c r="E6" s="5">
+        <v>151</v>
       </c>
       <c r="F6" s="5">
         <v>2021</v>
@@ -1545,7 +1548,7 @@
         <v>73</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>89</v>
@@ -1562,16 +1565,16 @@
         <v>94</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" s="5">
         <v>142</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>107</v>
+        <v>158</v>
+      </c>
+      <c r="E7" s="5">
+        <v>125</v>
       </c>
       <c r="F7" s="5">
         <v>2021</v>
@@ -1594,34 +1597,34 @@
     </row>
     <row r="8" spans="1:13" ht="44" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C8" s="5">
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>57</v>
+        <v>143</v>
+      </c>
+      <c r="E8" s="5">
+        <v>151</v>
       </c>
       <c r="F8" s="5">
         <v>2020</v>
       </c>
       <c r="G8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>46</v>
@@ -1629,34 +1632,34 @@
     </row>
     <row r="9" spans="1:13" ht="44" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="5">
         <v>83</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>99</v>
+        <v>143</v>
+      </c>
+      <c r="E9" s="5">
+        <v>101</v>
       </c>
       <c r="F9" s="5">
         <v>2020</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>46</v>
       </c>
       <c r="I9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>46</v>
@@ -1667,15 +1670,17 @@
         <v>36</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="17">
         <v>4</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="17"/>
+        <v>179</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>200</v>
+      </c>
       <c r="F10" s="17">
         <v>2023</v>
       </c>
@@ -1683,7 +1688,7 @@
         <v>51</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>37</v>
@@ -1702,16 +1707,16 @@
         <v>54</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="F11" s="17">
         <v>2022</v>
@@ -1720,7 +1725,7 @@
         <v>50</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>55</v>
@@ -1736,19 +1741,19 @@
     </row>
     <row r="12" spans="1:13" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="17">
         <v>22</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F12" s="17">
         <v>2020</v>
@@ -1757,13 +1762,13 @@
         <v>85</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>46</v>
@@ -1810,7 +1815,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>58</v>
@@ -1822,7 +1827,7 @@
         <v>48</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>39</v>
@@ -1854,7 +1859,7 @@
         <v>50</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>46</v>
@@ -1886,7 +1891,7 @@
         <v>81</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>46</v>
@@ -1900,7 +1905,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8">
@@ -1911,16 +1916,16 @@
         <v>2020</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>46</v>
@@ -1946,7 +1951,7 @@
         <v>49</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>75</v>
@@ -1976,7 +1981,7 @@
         <v>85</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>83</v>
@@ -2006,7 +2011,7 @@
         <v>81</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>91</v>
@@ -2020,10 +2025,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="8">
         <v>12</v>
@@ -2035,16 +2040,16 @@
         <v>2019</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>46</v>
@@ -2052,10 +2057,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="10">
         <v>50</v>
@@ -2070,13 +2075,13 @@
         <v>49</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>46</v>
@@ -2084,16 +2089,16 @@
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C13" s="5">
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>77</v>
@@ -2102,16 +2107,16 @@
         <v>2020</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>46</v>
@@ -2119,16 +2124,16 @@
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="5">
         <v>27</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>57</v>
@@ -2137,16 +2142,16 @@
         <v>2020</v>
       </c>
       <c r="G14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="J14" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>46</v>
@@ -2157,13 +2162,13 @@
         <v>47</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" s="5">
         <v>829</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>77</v>
@@ -2175,7 +2180,7 @@
         <v>49</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>52</v>

--- a/metadata/dataset_sum.xlsx
+++ b/metadata/dataset_sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingxuan/GitHub/canine_tumor_wes/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8565BB-D4D4-984B-B2F1-08F4896A0E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041F3F3A-F899-3841-9F71-F311211706D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29400" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{8C911715-1879-214C-93AA-41359558607D}"/>
   </bookViews>
@@ -1328,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3586624C-3A3C-3A4F-BE02-FCD2422E18D2}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1776,6 +1776,111 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
+    <row r="13" spans="1:13" ht="44" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="5">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="44" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="5">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="44" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="5">
+        <v>829</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1783,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF5FF9E-BB60-774C-891F-D2C85E568BFC}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A13" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2087,111 +2192,6 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="5">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2020</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="5">
-        <v>27</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2020</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="5">
-        <v>829</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2022</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
